--- a/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27639</v>
+        <v>27645</v>
       </c>
       <c r="D2" t="n">
         <v>7518</v>
       </c>
       <c r="E2" t="n">
-        <v>59176765</v>
+        <v>59185718</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46557</v>
+        <v>46565</v>
       </c>
       <c r="D4" t="n">
         <v>11514</v>
       </c>
       <c r="E4" t="n">
-        <v>121293539</v>
+        <v>121389601</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94243</v>
+        <v>94250</v>
       </c>
       <c r="D7" t="n">
         <v>32196</v>
       </c>
       <c r="E7" t="n">
-        <v>157689197</v>
+        <v>157707900</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>180731</v>
+        <v>180755</v>
       </c>
       <c r="D8" t="n">
         <v>40086</v>
       </c>
       <c r="E8" t="n">
-        <v>639548011</v>
+        <v>639680958</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69048</v>
+        <v>69092</v>
       </c>
       <c r="D9" t="n">
         <v>10014</v>
       </c>
       <c r="E9" t="n">
-        <v>188657350</v>
+        <v>188826081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>274418</v>
+        <v>274654</v>
       </c>
       <c r="D10" t="n">
         <v>29535</v>
       </c>
       <c r="E10" t="n">
-        <v>1729618956</v>
+        <v>1730808037</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24736</v>
+        <v>24748</v>
       </c>
       <c r="D11" t="n">
         <v>4807</v>
       </c>
       <c r="E11" t="n">
-        <v>61293537</v>
+        <v>61325360</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8967</v>
+        <v>8968</v>
       </c>
       <c r="D12" t="n">
         <v>2099</v>
       </c>
       <c r="E12" t="n">
-        <v>19454236</v>
+        <v>19456479</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37725</v>
+        <v>37734</v>
       </c>
       <c r="D13" t="n">
         <v>8456</v>
       </c>
       <c r="E13" t="n">
-        <v>96096460</v>
+        <v>96183296</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>118425</v>
+        <v>118476</v>
       </c>
       <c r="D14" t="n">
         <v>25269</v>
       </c>
       <c r="E14" t="n">
-        <v>374233115</v>
+        <v>374394479</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56953</v>
+        <v>56990</v>
       </c>
       <c r="D15" t="n">
         <v>11376</v>
       </c>
       <c r="E15" t="n">
-        <v>226261285</v>
+        <v>226487117</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134235</v>
+        <v>134270</v>
       </c>
       <c r="D17" t="n">
         <v>19588</v>
       </c>
       <c r="E17" t="n">
-        <v>295004457</v>
+        <v>295057158</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>60551</v>
+        <v>60552</v>
       </c>
       <c r="D18" t="n">
         <v>23691</v>
       </c>
       <c r="E18" t="n">
-        <v>83337248</v>
+        <v>83337292</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>107891</v>
+        <v>107963</v>
       </c>
       <c r="D19" t="n">
         <v>13543</v>
       </c>
       <c r="E19" t="n">
-        <v>338519440</v>
+        <v>338925101</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108056</v>
+        <v>108072</v>
       </c>
       <c r="D20" t="n">
         <v>24266</v>
       </c>
       <c r="E20" t="n">
-        <v>223994591</v>
+        <v>224058363</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10048</v>
+        <v>10049</v>
       </c>
       <c r="D21" t="n">
         <v>2897</v>
       </c>
       <c r="E21" t="n">
-        <v>35707063</v>
+        <v>35707233</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12376</v>
+        <v>12378</v>
       </c>
       <c r="D23" t="n">
         <v>3242</v>
       </c>
       <c r="E23" t="n">
-        <v>26283993</v>
+        <v>26355944</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21418</v>
+        <v>21420</v>
       </c>
       <c r="D26" t="n">
         <v>8050</v>
       </c>
       <c r="E26" t="n">
-        <v>34004975</v>
+        <v>34006152</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52221</v>
+        <v>52225</v>
       </c>
       <c r="D27" t="n">
         <v>12302</v>
       </c>
       <c r="E27" t="n">
-        <v>147976234</v>
+        <v>147978861</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7137</v>
+        <v>7138</v>
       </c>
       <c r="D28" t="n">
         <v>1539</v>
       </c>
       <c r="E28" t="n">
-        <v>19889748</v>
+        <v>19889998</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>76335</v>
+        <v>76406</v>
       </c>
       <c r="D29" t="n">
         <v>8193</v>
       </c>
       <c r="E29" t="n">
-        <v>425542368</v>
+        <v>425666053</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="D30" t="n">
         <v>861</v>
       </c>
       <c r="E30" t="n">
-        <v>10805843</v>
+        <v>10810068</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D31" t="n">
         <v>454</v>
       </c>
       <c r="E31" t="n">
-        <v>3410429</v>
+        <v>3412390</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6968</v>
+        <v>6970</v>
       </c>
       <c r="D32" t="n">
         <v>1712</v>
       </c>
       <c r="E32" t="n">
-        <v>13138102</v>
+        <v>13143903</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1763,13 +1763,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>22381</v>
+        <v>22389</v>
       </c>
       <c r="D33" t="n">
         <v>4909</v>
       </c>
       <c r="E33" t="n">
-        <v>72099048</v>
+        <v>72125054</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1804,13 +1804,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11069</v>
+        <v>11075</v>
       </c>
       <c r="D34" t="n">
         <v>2293</v>
       </c>
       <c r="E34" t="n">
-        <v>38277528</v>
+        <v>38575832</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16656</v>
+        <v>16662</v>
       </c>
       <c r="D36" t="n">
         <v>2781</v>
       </c>
       <c r="E36" t="n">
-        <v>27492454</v>
+        <v>27497495</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13163</v>
+        <v>13165</v>
       </c>
       <c r="D37" t="n">
         <v>5283</v>
       </c>
       <c r="E37" t="n">
-        <v>17422734</v>
+        <v>17424128</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26831</v>
+        <v>26846</v>
       </c>
       <c r="D38" t="n">
         <v>3283</v>
       </c>
       <c r="E38" t="n">
-        <v>82233392</v>
+        <v>82274997</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31617</v>
+        <v>31618</v>
       </c>
       <c r="D39" t="n">
         <v>7349</v>
       </c>
       <c r="E39" t="n">
-        <v>62788849</v>
+        <v>62789118</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2050,13 +2050,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6256</v>
+        <v>6258</v>
       </c>
       <c r="D40" t="n">
         <v>1868</v>
       </c>
       <c r="E40" t="n">
-        <v>16337627</v>
+        <v>16345471</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2132,13 +2132,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>16765</v>
+        <v>16767</v>
       </c>
       <c r="D42" t="n">
         <v>4197</v>
       </c>
       <c r="E42" t="n">
-        <v>32531456</v>
+        <v>32532348</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55633</v>
+        <v>55641</v>
       </c>
       <c r="D46" t="n">
         <v>13291</v>
       </c>
       <c r="E46" t="n">
-        <v>173185753</v>
+        <v>173201104</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10295</v>
+        <v>10297</v>
       </c>
       <c r="D47" t="n">
         <v>1867</v>
       </c>
       <c r="E47" t="n">
-        <v>28640127</v>
+        <v>28640544</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>102945</v>
+        <v>103043</v>
       </c>
       <c r="D48" t="n">
         <v>11318</v>
       </c>
       <c r="E48" t="n">
-        <v>621729072</v>
+        <v>621954926</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7674</v>
+        <v>7681</v>
       </c>
       <c r="D49" t="n">
         <v>1449</v>
       </c>
       <c r="E49" t="n">
-        <v>20821891</v>
+        <v>20851556</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33752</v>
+        <v>33771</v>
       </c>
       <c r="D52" t="n">
         <v>7491</v>
       </c>
       <c r="E52" t="n">
-        <v>114216010</v>
+        <v>114248592</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>13224</v>
+        <v>13230</v>
       </c>
       <c r="D53" t="n">
         <v>2956</v>
       </c>
       <c r="E53" t="n">
-        <v>50582254</v>
+        <v>50623352</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17793</v>
+        <v>17795</v>
       </c>
       <c r="D54" t="n">
         <v>3154</v>
       </c>
       <c r="E54" t="n">
-        <v>32062622</v>
+        <v>32063175</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32954</v>
+        <v>32970</v>
       </c>
       <c r="D56" t="n">
         <v>4453</v>
       </c>
       <c r="E56" t="n">
-        <v>107580275</v>
+        <v>107605211</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35295</v>
+        <v>35298</v>
       </c>
       <c r="D57" t="n">
         <v>8575</v>
       </c>
       <c r="E57" t="n">
-        <v>71855937</v>
+        <v>71857433</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2788,13 +2788,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6837</v>
+        <v>6840</v>
       </c>
       <c r="D58" t="n">
         <v>1819</v>
       </c>
       <c r="E58" t="n">
-        <v>25959626</v>
+        <v>25964719</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2829,13 +2829,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10550</v>
+        <v>10554</v>
       </c>
       <c r="D59" t="n">
         <v>2675</v>
       </c>
       <c r="E59" t="n">
-        <v>22386580</v>
+        <v>22509612</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20282</v>
+        <v>20284</v>
       </c>
       <c r="D62" t="n">
         <v>7735</v>
       </c>
       <c r="E62" t="n">
-        <v>32553855</v>
+        <v>32558988</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40766</v>
+        <v>40775</v>
       </c>
       <c r="D63" t="n">
         <v>9908</v>
       </c>
       <c r="E63" t="n">
-        <v>115460974</v>
+        <v>115494935</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10478</v>
+        <v>10485</v>
       </c>
       <c r="D64" t="n">
         <v>1958</v>
       </c>
       <c r="E64" t="n">
-        <v>25067523</v>
+        <v>25077631</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>60362</v>
+        <v>60405</v>
       </c>
       <c r="D65" t="n">
         <v>6608</v>
       </c>
       <c r="E65" t="n">
-        <v>332024211</v>
+        <v>332106415</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3116,13 +3116,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4844</v>
+        <v>4848</v>
       </c>
       <c r="D66" t="n">
         <v>972</v>
       </c>
       <c r="E66" t="n">
-        <v>13621374</v>
+        <v>13622899</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20632</v>
+        <v>20639</v>
       </c>
       <c r="D69" t="n">
         <v>4494</v>
       </c>
       <c r="E69" t="n">
-        <v>61624365</v>
+        <v>61644009</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10757</v>
+        <v>10762</v>
       </c>
       <c r="D70" t="n">
         <v>2311</v>
       </c>
       <c r="E70" t="n">
-        <v>36533302</v>
+        <v>36544773</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12607</v>
+        <v>12612</v>
       </c>
       <c r="D71" t="n">
         <v>2305</v>
       </c>
       <c r="E71" t="n">
-        <v>23376964</v>
+        <v>23378242</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>11182</v>
+        <v>11183</v>
       </c>
       <c r="D72" t="n">
         <v>4527</v>
       </c>
       <c r="E72" t="n">
-        <v>14702013</v>
+        <v>14702123</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24171</v>
+        <v>24192</v>
       </c>
       <c r="D73" t="n">
         <v>3127</v>
       </c>
       <c r="E73" t="n">
-        <v>79614960</v>
+        <v>79680383</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27948</v>
+        <v>27950</v>
       </c>
       <c r="D74" t="n">
         <v>6640</v>
       </c>
       <c r="E74" t="n">
-        <v>54689707</v>
+        <v>54689988</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5290</v>
+        <v>5292</v>
       </c>
       <c r="D75" t="n">
         <v>1139</v>
       </c>
       <c r="E75" t="n">
-        <v>10804511</v>
+        <v>10805660</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8020</v>
+        <v>8022</v>
       </c>
       <c r="D78" t="n">
         <v>2466</v>
       </c>
       <c r="E78" t="n">
-        <v>13422273</v>
+        <v>13427673</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>14165</v>
+        <v>14169</v>
       </c>
       <c r="D79" t="n">
         <v>2642</v>
       </c>
       <c r="E79" t="n">
-        <v>56484107</v>
+        <v>56612856</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25984</v>
+        <v>25996</v>
       </c>
       <c r="D81" t="n">
         <v>2824</v>
       </c>
       <c r="E81" t="n">
-        <v>163913922</v>
+        <v>163938555</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10694</v>
+        <v>10696</v>
       </c>
       <c r="D85" t="n">
         <v>1848</v>
       </c>
       <c r="E85" t="n">
-        <v>46809675</v>
+        <v>46811719</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5374</v>
+        <v>5377</v>
       </c>
       <c r="D86" t="n">
         <v>948</v>
       </c>
       <c r="E86" t="n">
-        <v>19145018</v>
+        <v>19165053</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="D88" t="n">
         <v>925</v>
       </c>
       <c r="E88" t="n">
-        <v>3273264</v>
+        <v>3273772</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4794</v>
+        <v>4795</v>
       </c>
       <c r="D89" t="n">
         <v>558</v>
       </c>
       <c r="E89" t="n">
-        <v>18106468</v>
+        <v>18107830</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4100,13 +4100,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6258</v>
+        <v>6259</v>
       </c>
       <c r="D90" t="n">
         <v>1289</v>
       </c>
       <c r="E90" t="n">
-        <v>12443920</v>
+        <v>12444212</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>53020</v>
+        <v>53037</v>
       </c>
       <c r="D91" t="n">
         <v>12965</v>
       </c>
       <c r="E91" t="n">
-        <v>272737416</v>
+        <v>272827409</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>23152</v>
+        <v>23154</v>
       </c>
       <c r="D93" t="n">
         <v>5777</v>
       </c>
       <c r="E93" t="n">
-        <v>83597892</v>
+        <v>83602605</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>98173</v>
+        <v>98197</v>
       </c>
       <c r="D97" t="n">
         <v>22692</v>
       </c>
       <c r="E97" t="n">
-        <v>303224850</v>
+        <v>303524819</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>22358</v>
+        <v>22366</v>
       </c>
       <c r="D98" t="n">
         <v>3647</v>
       </c>
       <c r="E98" t="n">
-        <v>60450926</v>
+        <v>60746577</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>134519</v>
+        <v>134677</v>
       </c>
       <c r="D99" t="n">
         <v>14077</v>
       </c>
       <c r="E99" t="n">
-        <v>855092062</v>
+        <v>855734337</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9759</v>
+        <v>9767</v>
       </c>
       <c r="D100" t="n">
         <v>1936</v>
       </c>
       <c r="E100" t="n">
-        <v>24379757</v>
+        <v>24394836</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13668</v>
+        <v>13671</v>
       </c>
       <c r="D102" t="n">
         <v>3098</v>
       </c>
       <c r="E102" t="n">
-        <v>28724704</v>
+        <v>28728613</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>48620</v>
+        <v>48638</v>
       </c>
       <c r="D103" t="n">
         <v>10618</v>
       </c>
       <c r="E103" t="n">
-        <v>136977440</v>
+        <v>137003189</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21897</v>
+        <v>21911</v>
       </c>
       <c r="D104" t="n">
         <v>4579</v>
       </c>
       <c r="E104" t="n">
-        <v>81131737</v>
+        <v>81241147</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>27134</v>
+        <v>27140</v>
       </c>
       <c r="D106" t="n">
         <v>4747</v>
       </c>
       <c r="E106" t="n">
-        <v>49221415</v>
+        <v>49259791</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>45573</v>
+        <v>45590</v>
       </c>
       <c r="D108" t="n">
         <v>5477</v>
       </c>
       <c r="E108" t="n">
-        <v>144128911</v>
+        <v>144271075</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4879,13 +4879,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>65548</v>
+        <v>65554</v>
       </c>
       <c r="D109" t="n">
         <v>14845</v>
       </c>
       <c r="E109" t="n">
-        <v>129962988</v>
+        <v>130016126</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16204</v>
+        <v>16268</v>
       </c>
       <c r="D110" t="n">
         <v>2609</v>
       </c>
       <c r="E110" t="n">
-        <v>25092674</v>
+        <v>25183879</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5631</v>
+        <v>5650</v>
       </c>
       <c r="D111" t="n">
         <v>1224</v>
       </c>
       <c r="E111" t="n">
-        <v>10926668</v>
+        <v>10969355</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7334</v>
+        <v>7343</v>
       </c>
       <c r="D114" t="n">
         <v>2179</v>
       </c>
       <c r="E114" t="n">
-        <v>11339060</v>
+        <v>11352496</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>16120</v>
+        <v>16176</v>
       </c>
       <c r="D115" t="n">
         <v>3293</v>
       </c>
       <c r="E115" t="n">
-        <v>33237011</v>
+        <v>33487689</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4938</v>
+        <v>4952</v>
       </c>
       <c r="D116" t="n">
         <v>744</v>
       </c>
       <c r="E116" t="n">
-        <v>13100141</v>
+        <v>13316338</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>18007</v>
+        <v>18066</v>
       </c>
       <c r="D117" t="n">
         <v>2181</v>
       </c>
       <c r="E117" t="n">
-        <v>49169311</v>
+        <v>49341866</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="D118" t="n">
         <v>312</v>
       </c>
       <c r="E118" t="n">
-        <v>4531596</v>
+        <v>4540311</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D120" t="n">
         <v>447</v>
       </c>
       <c r="E120" t="n">
-        <v>3989001</v>
+        <v>3990501</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5696</v>
+        <v>5715</v>
       </c>
       <c r="D121" t="n">
         <v>1294</v>
       </c>
       <c r="E121" t="n">
-        <v>10742217</v>
+        <v>10773467</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9037</v>
+        <v>9061</v>
       </c>
       <c r="D122" t="n">
         <v>1424</v>
       </c>
       <c r="E122" t="n">
-        <v>26598771</v>
+        <v>26661979</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5453,13 +5453,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="D123" t="n">
         <v>669</v>
       </c>
       <c r="E123" t="n">
-        <v>4514617</v>
+        <v>4522262</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4167</v>
+        <v>4186</v>
       </c>
       <c r="D125" t="n">
         <v>506</v>
       </c>
       <c r="E125" t="n">
-        <v>11531566</v>
+        <v>11589914</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5273</v>
+        <v>5292</v>
       </c>
       <c r="D126" t="n">
         <v>1159</v>
       </c>
       <c r="E126" t="n">
-        <v>7666124</v>
+        <v>7696778</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7290</v>
+        <v>7363</v>
       </c>
       <c r="D127" t="n">
         <v>830</v>
       </c>
       <c r="E127" t="n">
-        <v>11728951</v>
+        <v>11823667</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2617</v>
+        <v>2623</v>
       </c>
       <c r="D129" t="n">
         <v>409</v>
       </c>
       <c r="E129" t="n">
-        <v>5572283</v>
+        <v>5581283</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7464</v>
+        <v>7481</v>
       </c>
       <c r="D131" t="n">
         <v>1112</v>
       </c>
       <c r="E131" t="n">
-        <v>16269191</v>
+        <v>16294691</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6334</v>
+        <v>6344</v>
       </c>
       <c r="D132" t="n">
         <v>996</v>
       </c>
       <c r="E132" t="n">
-        <v>12920868</v>
+        <v>12936485</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5863,13 +5863,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D133" t="n">
         <v>295</v>
       </c>
       <c r="E133" t="n">
-        <v>6628655</v>
+        <v>6630042</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5090</v>
+        <v>5100</v>
       </c>
       <c r="D134" t="n">
         <v>592</v>
       </c>
       <c r="E134" t="n">
-        <v>14707817</v>
+        <v>14731436</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6068,13 +6068,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="D138" t="n">
         <v>447</v>
       </c>
       <c r="E138" t="n">
-        <v>6056175</v>
+        <v>6071636</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3097</v>
+        <v>3105</v>
       </c>
       <c r="D139" t="n">
         <v>407</v>
       </c>
       <c r="E139" t="n">
-        <v>8375468</v>
+        <v>8389002</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6150,13 +6150,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D140" t="n">
         <v>157</v>
       </c>
       <c r="E140" t="n">
-        <v>1856365</v>
+        <v>1858699</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D141" t="n">
         <v>245</v>
       </c>
       <c r="E141" t="n">
-        <v>1806564</v>
+        <v>1808064</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="D142" t="n">
         <v>138</v>
       </c>
       <c r="E142" t="n">
-        <v>2943073</v>
+        <v>2956744</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="D143" t="n">
         <v>298</v>
       </c>
       <c r="E143" t="n">
-        <v>3598367</v>
+        <v>3604248</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7725</v>
+        <v>7726</v>
       </c>
       <c r="D144" t="n">
         <v>2214</v>
       </c>
       <c r="E144" t="n">
-        <v>24479425</v>
+        <v>24480796</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17092</v>
+        <v>17094</v>
       </c>
       <c r="D146" t="n">
         <v>4239</v>
       </c>
       <c r="E146" t="n">
-        <v>45791675</v>
+        <v>45794024</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6519,13 +6519,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>36767</v>
+        <v>36770</v>
       </c>
       <c r="D149" t="n">
         <v>13032</v>
       </c>
       <c r="E149" t="n">
-        <v>59430915</v>
+        <v>59432367</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>94798</v>
+        <v>94819</v>
       </c>
       <c r="D150" t="n">
         <v>21150</v>
       </c>
       <c r="E150" t="n">
-        <v>275886906</v>
+        <v>276413291</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>36826</v>
+        <v>36842</v>
       </c>
       <c r="D151" t="n">
         <v>5304</v>
       </c>
       <c r="E151" t="n">
-        <v>79264948</v>
+        <v>79272014</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>124420</v>
+        <v>124564</v>
       </c>
       <c r="D152" t="n">
         <v>13482</v>
       </c>
       <c r="E152" t="n">
-        <v>710107475</v>
+        <v>710577962</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6683,13 +6683,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>9399</v>
+        <v>9402</v>
       </c>
       <c r="D153" t="n">
         <v>1964</v>
       </c>
       <c r="E153" t="n">
-        <v>23745132</v>
+        <v>23745852</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4216</v>
+        <v>4220</v>
       </c>
       <c r="D154" t="n">
         <v>964</v>
       </c>
       <c r="E154" t="n">
-        <v>8263281</v>
+        <v>8291797</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>11625</v>
+        <v>11627</v>
       </c>
       <c r="D155" t="n">
         <v>2742</v>
       </c>
       <c r="E155" t="n">
-        <v>24874015</v>
+        <v>24875231</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>47345</v>
+        <v>47364</v>
       </c>
       <c r="D156" t="n">
         <v>9991</v>
       </c>
       <c r="E156" t="n">
-        <v>141043898</v>
+        <v>141145680</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>21035</v>
+        <v>21048</v>
       </c>
       <c r="D157" t="n">
         <v>4281</v>
       </c>
       <c r="E157" t="n">
-        <v>76335976</v>
+        <v>76371361</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>21948</v>
+        <v>21951</v>
       </c>
       <c r="D159" t="n">
         <v>4110</v>
       </c>
       <c r="E159" t="n">
-        <v>37243437</v>
+        <v>37244100</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7011,13 +7011,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>44257</v>
+        <v>44288</v>
       </c>
       <c r="D161" t="n">
         <v>5326</v>
       </c>
       <c r="E161" t="n">
-        <v>143618553</v>
+        <v>143823583</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7052,13 +7052,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>62004</v>
+        <v>62010</v>
       </c>
       <c r="D162" t="n">
         <v>14055</v>
       </c>
       <c r="E162" t="n">
-        <v>113283264</v>
+        <v>113305024</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>49968</v>
+        <v>49996</v>
       </c>
       <c r="D164" t="n">
         <v>11048</v>
       </c>
       <c r="E164" t="n">
-        <v>157248625</v>
+        <v>157507475</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>101346</v>
+        <v>101353</v>
       </c>
       <c r="D167" t="n">
         <v>32167</v>
       </c>
       <c r="E167" t="n">
-        <v>192677012</v>
+        <v>192717058</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>281849</v>
+        <v>282015</v>
       </c>
       <c r="D168" t="n">
         <v>58034</v>
       </c>
       <c r="E168" t="n">
-        <v>1150197934</v>
+        <v>1153436725</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>557605</v>
+        <v>558014</v>
       </c>
       <c r="D169" t="n">
         <v>60922</v>
       </c>
       <c r="E169" t="n">
-        <v>1269829121</v>
+        <v>1270313390</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>358213</v>
+        <v>358790</v>
       </c>
       <c r="D170" t="n">
         <v>37989</v>
       </c>
       <c r="E170" t="n">
-        <v>2761602143</v>
+        <v>2765342911</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>113497</v>
+        <v>113588</v>
       </c>
       <c r="D171" t="n">
         <v>20243</v>
       </c>
       <c r="E171" t="n">
-        <v>418122458</v>
+        <v>418815530</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21491</v>
+        <v>21502</v>
       </c>
       <c r="D172" t="n">
         <v>4326</v>
       </c>
       <c r="E172" t="n">
-        <v>68539959</v>
+        <v>68688126</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54025</v>
+        <v>54040</v>
       </c>
       <c r="D173" t="n">
         <v>11591</v>
       </c>
       <c r="E173" t="n">
-        <v>148839920</v>
+        <v>149061423</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>354018</v>
+        <v>354162</v>
       </c>
       <c r="D174" t="n">
         <v>69712</v>
       </c>
       <c r="E174" t="n">
-        <v>984688843</v>
+        <v>985857311</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>122894</v>
+        <v>123046</v>
       </c>
       <c r="D175" t="n">
         <v>18048</v>
       </c>
       <c r="E175" t="n">
-        <v>737139075</v>
+        <v>740065742</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96189</v>
+        <v>96231</v>
       </c>
       <c r="D177" t="n">
         <v>16490</v>
       </c>
       <c r="E177" t="n">
-        <v>171121624</v>
+        <v>171177409</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>75315</v>
+        <v>75317</v>
       </c>
       <c r="D178" t="n">
         <v>28755</v>
       </c>
       <c r="E178" t="n">
-        <v>102628891</v>
+        <v>102630518</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>232273</v>
+        <v>232494</v>
       </c>
       <c r="D179" t="n">
         <v>29281</v>
       </c>
       <c r="E179" t="n">
-        <v>775927619</v>
+        <v>777310722</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>140569</v>
+        <v>140612</v>
       </c>
       <c r="D180" t="n">
         <v>28873</v>
       </c>
       <c r="E180" t="n">
-        <v>333871859</v>
+        <v>334099327</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7831,13 +7831,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>7855</v>
+        <v>7857</v>
       </c>
       <c r="D181" t="n">
         <v>1793</v>
       </c>
       <c r="E181" t="n">
-        <v>11239624</v>
+        <v>11241694</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6391</v>
+        <v>6394</v>
       </c>
       <c r="D182" t="n">
         <v>1657</v>
       </c>
       <c r="E182" t="n">
-        <v>12505618</v>
+        <v>12518848</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7995,13 +7995,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>9114</v>
+        <v>9118</v>
       </c>
       <c r="D185" t="n">
         <v>3241</v>
       </c>
       <c r="E185" t="n">
-        <v>14030828</v>
+        <v>14074183</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21504</v>
+        <v>21515</v>
       </c>
       <c r="D186" t="n">
         <v>5225</v>
       </c>
       <c r="E186" t="n">
-        <v>38699122</v>
+        <v>38741226</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8077,13 +8077,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3145</v>
+        <v>3150</v>
       </c>
       <c r="D187" t="n">
         <v>785</v>
       </c>
       <c r="E187" t="n">
-        <v>6749616</v>
+        <v>6754335</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>18610</v>
+        <v>18642</v>
       </c>
       <c r="D188" t="n">
         <v>2615</v>
       </c>
       <c r="E188" t="n">
-        <v>58717549</v>
+        <v>58939640</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D189" t="n">
         <v>402</v>
       </c>
       <c r="E189" t="n">
-        <v>6769254</v>
+        <v>6777865</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8282,13 +8282,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7286</v>
+        <v>7294</v>
       </c>
       <c r="D192" t="n">
         <v>1867</v>
       </c>
       <c r="E192" t="n">
-        <v>15901370</v>
+        <v>15916937</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5193</v>
+        <v>5196</v>
       </c>
       <c r="D193" t="n">
         <v>1043</v>
       </c>
       <c r="E193" t="n">
-        <v>24074617</v>
+        <v>24088808</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8364,13 +8364,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5713</v>
+        <v>5717</v>
       </c>
       <c r="D194" t="n">
         <v>1252</v>
       </c>
       <c r="E194" t="n">
-        <v>7971957</v>
+        <v>7973359</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="D196" t="n">
         <v>945</v>
       </c>
       <c r="E196" t="n">
-        <v>18430765</v>
+        <v>18460960</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6928</v>
+        <v>6930</v>
       </c>
       <c r="D197" t="n">
         <v>1984</v>
       </c>
       <c r="E197" t="n">
-        <v>9295340</v>
+        <v>9300168</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8528,13 +8528,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4089</v>
+        <v>4101</v>
       </c>
       <c r="D198" t="n">
         <v>779</v>
       </c>
       <c r="E198" t="n">
-        <v>5603827</v>
+        <v>5617217</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3844</v>
+        <v>3852</v>
       </c>
       <c r="D199" t="n">
         <v>845</v>
       </c>
       <c r="E199" t="n">
-        <v>7748890</v>
+        <v>7772537</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8692,13 +8692,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4496</v>
+        <v>4504</v>
       </c>
       <c r="D202" t="n">
         <v>1384</v>
       </c>
       <c r="E202" t="n">
-        <v>7296271</v>
+        <v>7308271</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>11780</v>
+        <v>11816</v>
       </c>
       <c r="D203" t="n">
         <v>2274</v>
       </c>
       <c r="E203" t="n">
-        <v>28477270</v>
+        <v>28635299</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4343</v>
+        <v>4351</v>
       </c>
       <c r="D204" t="n">
         <v>726</v>
       </c>
       <c r="E204" t="n">
-        <v>10339879</v>
+        <v>10376310</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>9559</v>
+        <v>9594</v>
       </c>
       <c r="D205" t="n">
         <v>1294</v>
       </c>
       <c r="E205" t="n">
-        <v>35030837</v>
+        <v>35135023</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8856,13 +8856,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D206" t="n">
         <v>233</v>
       </c>
       <c r="E206" t="n">
-        <v>3210939</v>
+        <v>3213738</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D208" t="n">
         <v>310</v>
       </c>
       <c r="E208" t="n">
-        <v>2901086</v>
+        <v>2905086</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8979,13 +8979,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4977</v>
+        <v>4984</v>
       </c>
       <c r="D209" t="n">
         <v>1130</v>
       </c>
       <c r="E209" t="n">
-        <v>10751873</v>
+        <v>10771172</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5811</v>
+        <v>5823</v>
       </c>
       <c r="D210" t="n">
         <v>969</v>
       </c>
       <c r="E210" t="n">
-        <v>15392904</v>
+        <v>15425382</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="D211" t="n">
         <v>486</v>
       </c>
       <c r="E211" t="n">
-        <v>4172724</v>
+        <v>4178724</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="D212" t="n">
         <v>941</v>
       </c>
       <c r="E212" t="n">
-        <v>3390804</v>
+        <v>3394205</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3152</v>
+        <v>3159</v>
       </c>
       <c r="D213" t="n">
         <v>398</v>
       </c>
       <c r="E213" t="n">
-        <v>8965051</v>
+        <v>8976757</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9184,13 +9184,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5730</v>
+        <v>5754</v>
       </c>
       <c r="D214" t="n">
         <v>1073</v>
       </c>
       <c r="E214" t="n">
-        <v>10125137</v>
+        <v>10212970</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>9113</v>
+        <v>9114</v>
       </c>
       <c r="D215" t="n">
         <v>1090</v>
       </c>
       <c r="E215" t="n">
-        <v>19822560</v>
+        <v>19825180</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9266,13 +9266,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D216" t="n">
         <v>202</v>
       </c>
       <c r="E216" t="n">
-        <v>3695359</v>
+        <v>3696799</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -9389,13 +9389,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>22146</v>
+        <v>22148</v>
       </c>
       <c r="D219" t="n">
         <v>2789</v>
       </c>
       <c r="E219" t="n">
-        <v>51779155</v>
+        <v>51783962</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4662</v>
+        <v>4665</v>
       </c>
       <c r="D220" t="n">
         <v>521</v>
       </c>
       <c r="E220" t="n">
-        <v>11616445</v>
+        <v>11618305</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="D221" t="n">
         <v>323</v>
       </c>
       <c r="E221" t="n">
-        <v>6978453</v>
+        <v>6979453</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9512,13 +9512,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D222" t="n">
         <v>42</v>
       </c>
       <c r="E222" t="n">
-        <v>545729</v>
+        <v>546406</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9635,13 +9635,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D225" t="n">
         <v>129</v>
       </c>
       <c r="E225" t="n">
-        <v>1623369</v>
+        <v>1623878</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9881,13 +9881,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5998</v>
+        <v>5999</v>
       </c>
       <c r="D231" t="n">
         <v>1740</v>
       </c>
       <c r="E231" t="n">
-        <v>12918054</v>
+        <v>12921563</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9963,13 +9963,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11751</v>
+        <v>11753</v>
       </c>
       <c r="D233" t="n">
         <v>3023</v>
       </c>
       <c r="E233" t="n">
-        <v>24868111</v>
+        <v>24871694</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>58170</v>
+        <v>58184</v>
       </c>
       <c r="D237" t="n">
         <v>13468</v>
       </c>
       <c r="E237" t="n">
-        <v>170940052</v>
+        <v>170962440</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10168,13 +10168,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>11825</v>
+        <v>11828</v>
       </c>
       <c r="D238" t="n">
         <v>2162</v>
       </c>
       <c r="E238" t="n">
-        <v>30966755</v>
+        <v>30972992</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10209,13 +10209,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>83961</v>
+        <v>84025</v>
       </c>
       <c r="D239" t="n">
         <v>9389</v>
       </c>
       <c r="E239" t="n">
-        <v>497798870</v>
+        <v>497942955</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5385</v>
+        <v>5387</v>
       </c>
       <c r="D240" t="n">
         <v>1053</v>
       </c>
       <c r="E240" t="n">
-        <v>14123974</v>
+        <v>14124266</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10332,13 +10332,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>8484</v>
+        <v>8486</v>
       </c>
       <c r="D242" t="n">
         <v>1986</v>
       </c>
       <c r="E242" t="n">
-        <v>19075175</v>
+        <v>19076888</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10373,13 +10373,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>28005</v>
+        <v>28015</v>
       </c>
       <c r="D243" t="n">
         <v>5935</v>
       </c>
       <c r="E243" t="n">
-        <v>89633069</v>
+        <v>89655087</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10414,13 +10414,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>13114</v>
+        <v>13120</v>
       </c>
       <c r="D244" t="n">
         <v>2616</v>
       </c>
       <c r="E244" t="n">
-        <v>44930882</v>
+        <v>44960934</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10455,13 +10455,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15252</v>
+        <v>15258</v>
       </c>
       <c r="D245" t="n">
         <v>2710</v>
       </c>
       <c r="E245" t="n">
-        <v>27238481</v>
+        <v>27240193</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10537,13 +10537,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29167</v>
+        <v>29188</v>
       </c>
       <c r="D247" t="n">
         <v>3748</v>
       </c>
       <c r="E247" t="n">
-        <v>97613362</v>
+        <v>97738618</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10578,13 +10578,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>38188</v>
+        <v>38196</v>
       </c>
       <c r="D248" t="n">
         <v>8753</v>
       </c>
       <c r="E248" t="n">
-        <v>73724871</v>
+        <v>73740935</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10619,13 +10619,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>36740</v>
+        <v>36760</v>
       </c>
       <c r="D249" t="n">
         <v>9216</v>
       </c>
       <c r="E249" t="n">
-        <v>146446780</v>
+        <v>146492467</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10701,13 +10701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>35600</v>
+        <v>35613</v>
       </c>
       <c r="D251" t="n">
         <v>8839</v>
       </c>
       <c r="E251" t="n">
-        <v>72922441</v>
+        <v>73158165</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10824,13 +10824,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>62413</v>
+        <v>62416</v>
       </c>
       <c r="D254" t="n">
         <v>23918</v>
       </c>
       <c r="E254" t="n">
-        <v>99354052</v>
+        <v>99364153</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10865,13 +10865,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>140971</v>
+        <v>141002</v>
       </c>
       <c r="D255" t="n">
         <v>32112</v>
       </c>
       <c r="E255" t="n">
-        <v>408517079</v>
+        <v>408831740</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10906,13 +10906,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>30288</v>
+        <v>30299</v>
       </c>
       <c r="D256" t="n">
         <v>5076</v>
       </c>
       <c r="E256" t="n">
-        <v>78079749</v>
+        <v>78103038</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>180450</v>
+        <v>180585</v>
       </c>
       <c r="D257" t="n">
         <v>20331</v>
       </c>
       <c r="E257" t="n">
-        <v>1055887352</v>
+        <v>1056151876</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10988,13 +10988,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>15016</v>
+        <v>15024</v>
       </c>
       <c r="D258" t="n">
         <v>2997</v>
       </c>
       <c r="E258" t="n">
-        <v>39952350</v>
+        <v>39958947</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -11029,13 +11029,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6223</v>
+        <v>6224</v>
       </c>
       <c r="D259" t="n">
         <v>1547</v>
       </c>
       <c r="E259" t="n">
-        <v>14545386</v>
+        <v>14547382</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -11070,13 +11070,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>23496</v>
+        <v>23498</v>
       </c>
       <c r="D260" t="n">
         <v>5872</v>
       </c>
       <c r="E260" t="n">
-        <v>49370225</v>
+        <v>49372018</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -11111,13 +11111,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>78984</v>
+        <v>79015</v>
       </c>
       <c r="D261" t="n">
         <v>17205</v>
       </c>
       <c r="E261" t="n">
-        <v>230549794</v>
+        <v>230595871</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11152,13 +11152,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>38664</v>
+        <v>38686</v>
       </c>
       <c r="D262" t="n">
         <v>8160</v>
       </c>
       <c r="E262" t="n">
-        <v>120846613</v>
+        <v>120908090</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11234,13 +11234,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>47317</v>
+        <v>47332</v>
       </c>
       <c r="D264" t="n">
         <v>7782</v>
       </c>
       <c r="E264" t="n">
-        <v>81595711</v>
+        <v>81607087</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11275,13 +11275,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="D265" t="n">
         <v>17114</v>
       </c>
       <c r="E265" t="n">
-        <v>57712821</v>
+        <v>57714821</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11316,13 +11316,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>70974</v>
+        <v>71010</v>
       </c>
       <c r="D266" t="n">
         <v>9121</v>
       </c>
       <c r="E266" t="n">
-        <v>215811776</v>
+        <v>215878455</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84821</v>
+        <v>84835</v>
       </c>
       <c r="D267" t="n">
         <v>20046</v>
       </c>
       <c r="E267" t="n">
-        <v>156143947</v>
+        <v>156163473</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11398,13 +11398,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>32200</v>
+        <v>32212</v>
       </c>
       <c r="D268" t="n">
         <v>8041</v>
       </c>
       <c r="E268" t="n">
-        <v>88315887</v>
+        <v>88329850</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11480,13 +11480,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>39762</v>
+        <v>39771</v>
       </c>
       <c r="D270" t="n">
         <v>9532</v>
       </c>
       <c r="E270" t="n">
-        <v>80255533</v>
+        <v>80283482</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11603,13 +11603,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>88800</v>
+        <v>88801</v>
       </c>
       <c r="D273" t="n">
         <v>29725</v>
       </c>
       <c r="E273" t="n">
-        <v>139590519</v>
+        <v>139591072</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11644,13 +11644,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>167732</v>
+        <v>167772</v>
       </c>
       <c r="D274" t="n">
         <v>35717</v>
       </c>
       <c r="E274" t="n">
-        <v>451171090</v>
+        <v>451299619</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11685,13 +11685,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>39070</v>
+        <v>39087</v>
       </c>
       <c r="D275" t="n">
         <v>6072</v>
       </c>
       <c r="E275" t="n">
-        <v>98412999</v>
+        <v>98427084</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>214273</v>
+        <v>214459</v>
       </c>
       <c r="D276" t="n">
         <v>23430</v>
       </c>
       <c r="E276" t="n">
-        <v>1202348809</v>
+        <v>1202899528</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11767,13 +11767,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>19008</v>
+        <v>19013</v>
       </c>
       <c r="D277" t="n">
         <v>3688</v>
       </c>
       <c r="E277" t="n">
-        <v>42352866</v>
+        <v>42356070</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11808,13 +11808,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>6680</v>
+        <v>6682</v>
       </c>
       <c r="D278" t="n">
         <v>1612</v>
       </c>
       <c r="E278" t="n">
-        <v>13133690</v>
+        <v>13135790</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>28907</v>
+        <v>28911</v>
       </c>
       <c r="D279" t="n">
         <v>6571</v>
       </c>
       <c r="E279" t="n">
-        <v>56943133</v>
+        <v>56947578</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11890,13 +11890,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>94870</v>
+        <v>94914</v>
       </c>
       <c r="D280" t="n">
         <v>19771</v>
       </c>
       <c r="E280" t="n">
-        <v>280296841</v>
+        <v>280405859</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11931,13 +11931,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>43661</v>
+        <v>43686</v>
       </c>
       <c r="D281" t="n">
         <v>9033</v>
       </c>
       <c r="E281" t="n">
-        <v>139834297</v>
+        <v>140109919</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -12013,13 +12013,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>60634</v>
+        <v>60650</v>
       </c>
       <c r="D283" t="n">
         <v>9889</v>
       </c>
       <c r="E283" t="n">
-        <v>101303074</v>
+        <v>101315552</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -12054,13 +12054,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>48447</v>
+        <v>48448</v>
       </c>
       <c r="D284" t="n">
         <v>19342</v>
       </c>
       <c r="E284" t="n">
-        <v>65410156</v>
+        <v>65416226</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12095,13 +12095,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>85005</v>
+        <v>85058</v>
       </c>
       <c r="D285" t="n">
         <v>10385</v>
       </c>
       <c r="E285" t="n">
-        <v>254557781</v>
+        <v>254711403</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12136,13 +12136,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>90427</v>
+        <v>90436</v>
       </c>
       <c r="D286" t="n">
         <v>20300</v>
       </c>
       <c r="E286" t="n">
-        <v>162180341</v>
+        <v>162199699</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12177,13 +12177,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8515</v>
+        <v>8519</v>
       </c>
       <c r="D287" t="n">
         <v>2445</v>
       </c>
       <c r="E287" t="n">
-        <v>24811375</v>
+        <v>24815925</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12259,13 +12259,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>15737</v>
+        <v>15743</v>
       </c>
       <c r="D289" t="n">
         <v>4119</v>
       </c>
       <c r="E289" t="n">
-        <v>34815167</v>
+        <v>34817777</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -12423,13 +12423,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>61482</v>
+        <v>61493</v>
       </c>
       <c r="D293" t="n">
         <v>14539</v>
       </c>
       <c r="E293" t="n">
-        <v>191768662</v>
+        <v>191795753</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12464,13 +12464,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>15741</v>
+        <v>15752</v>
       </c>
       <c r="D294" t="n">
         <v>2497</v>
       </c>
       <c r="E294" t="n">
-        <v>41242664</v>
+        <v>41249360</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>90185</v>
+        <v>90291</v>
       </c>
       <c r="D295" t="n">
         <v>9941</v>
       </c>
       <c r="E295" t="n">
-        <v>549093792</v>
+        <v>549337584</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12546,13 +12546,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>8601</v>
+        <v>8606</v>
       </c>
       <c r="D296" t="n">
         <v>1688</v>
       </c>
       <c r="E296" t="n">
-        <v>20410530</v>
+        <v>20427172</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12669,13 +12669,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>43049</v>
+        <v>43071</v>
       </c>
       <c r="D299" t="n">
         <v>9344</v>
       </c>
       <c r="E299" t="n">
-        <v>138996771</v>
+        <v>139192096</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12710,13 +12710,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>15608</v>
+        <v>15620</v>
       </c>
       <c r="D300" t="n">
         <v>3358</v>
       </c>
       <c r="E300" t="n">
-        <v>73997808</v>
+        <v>74013906</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12751,13 +12751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>19870</v>
+        <v>19874</v>
       </c>
       <c r="D301" t="n">
         <v>3606</v>
       </c>
       <c r="E301" t="n">
-        <v>36529071</v>
+        <v>36531006</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12792,13 +12792,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>23845</v>
+        <v>23847</v>
       </c>
       <c r="D302" t="n">
         <v>9606</v>
       </c>
       <c r="E302" t="n">
-        <v>31467105</v>
+        <v>31469105</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12833,13 +12833,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>39686</v>
+        <v>39707</v>
       </c>
       <c r="D303" t="n">
         <v>5221</v>
       </c>
       <c r="E303" t="n">
-        <v>129381890</v>
+        <v>129424246</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12874,13 +12874,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>43087</v>
+        <v>43092</v>
       </c>
       <c r="D304" t="n">
         <v>10327</v>
       </c>
       <c r="E304" t="n">
-        <v>86595878</v>
+        <v>86617090</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12915,13 +12915,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>14647</v>
+        <v>14652</v>
       </c>
       <c r="D305" t="n">
         <v>3609</v>
       </c>
       <c r="E305" t="n">
-        <v>47449332</v>
+        <v>47464890</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -12997,13 +12997,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>39471</v>
+        <v>39479</v>
       </c>
       <c r="D307" t="n">
         <v>8918</v>
       </c>
       <c r="E307" t="n">
-        <v>93530023</v>
+        <v>93657151</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -13120,13 +13120,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>82638</v>
+        <v>82644</v>
       </c>
       <c r="D310" t="n">
         <v>26091</v>
       </c>
       <c r="E310" t="n">
-        <v>135383965</v>
+        <v>135400843</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190186</v>
+        <v>190232</v>
       </c>
       <c r="D311" t="n">
         <v>37707</v>
       </c>
       <c r="E311" t="n">
-        <v>578639712</v>
+        <v>578918295</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13202,13 +13202,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>74534</v>
+        <v>74592</v>
       </c>
       <c r="D312" t="n">
         <v>9348</v>
       </c>
       <c r="E312" t="n">
-        <v>199278689</v>
+        <v>199413723</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>218205</v>
+        <v>218398</v>
       </c>
       <c r="D313" t="n">
         <v>23380</v>
       </c>
       <c r="E313" t="n">
-        <v>1357320365</v>
+        <v>1357859490</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13284,13 +13284,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>20810</v>
+        <v>20822</v>
       </c>
       <c r="D314" t="n">
         <v>3860</v>
       </c>
       <c r="E314" t="n">
-        <v>51591117</v>
+        <v>51631226</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13325,13 +13325,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8118</v>
+        <v>8119</v>
       </c>
       <c r="D315" t="n">
         <v>1773</v>
       </c>
       <c r="E315" t="n">
-        <v>17901530</v>
+        <v>17901871</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -13366,13 +13366,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>38610</v>
+        <v>38620</v>
       </c>
       <c r="D316" t="n">
         <v>8092</v>
       </c>
       <c r="E316" t="n">
-        <v>86665189</v>
+        <v>86681621</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103088</v>
+        <v>103129</v>
       </c>
       <c r="D317" t="n">
         <v>21205</v>
       </c>
       <c r="E317" t="n">
-        <v>300202660</v>
+        <v>300411837</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13448,13 +13448,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>58288</v>
+        <v>58335</v>
       </c>
       <c r="D318" t="n">
         <v>10922</v>
       </c>
       <c r="E318" t="n">
-        <v>217225090</v>
+        <v>218094935</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -13530,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>66991</v>
+        <v>67004</v>
       </c>
       <c r="D320" t="n">
         <v>10274</v>
       </c>
       <c r="E320" t="n">
-        <v>123686027</v>
+        <v>123710320</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>80421</v>
+        <v>80483</v>
       </c>
       <c r="D322" t="n">
         <v>9692</v>
       </c>
       <c r="E322" t="n">
-        <v>250610289</v>
+        <v>250813004</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -13653,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>94445</v>
+        <v>94468</v>
       </c>
       <c r="D323" t="n">
         <v>19879</v>
       </c>
       <c r="E323" t="n">
-        <v>178199776</v>
+        <v>178234419</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
